--- a/PocoPanda/Template/Template_Table.xlsx
+++ b/PocoPanda/Template/Template_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepos\DapperPocoLab\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepos\PocoPanda\PocoPanda\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B88D1EC-E16D-4912-AB37-E9099D4E6B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABE32E1-F5CC-4EA3-B449-5EB1991FE105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="-15720" windowWidth="26970" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="-14415" windowWidth="23310" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableInfo" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>檔案(物件)名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>{{item.Desc}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Desc}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,9 +377,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -413,7 +417,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -519,7 +523,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -661,7 +665,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -672,7 +676,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B6" sqref="B6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -734,7 +738,9 @@
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
